--- a/models/CDCM/Illustrative/Table 1202 defaults.xlsx
+++ b/models/CDCM/Illustrative/Table 1202 defaults.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28580" windowHeight="16320" tabRatio="500"/>
@@ -138,9 +138,6 @@
     <t>^(?:Small|LV).*Non[- ]Domestic(?: [UTN]|$)</t>
   </si>
   <si>
-    <t>^(?:|LDNO .*: )(?:Demand Category|HV.*HH)</t>
-  </si>
-  <si>
     <t>^(?:Small|LV).*(?:Non[- ]Domestic(?: [UTN]|$)|HH Metered)</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>Modulo 10</t>
   </si>
   <si>
-    <t>^(?:|LDNO .*: )(?:LV|LV Sub|HV) HH Metered</t>
-  </si>
-  <si>
     <t>(?:^|: )(?:LV Network Domestic Disabled|Domestic [UT])</t>
   </si>
   <si>
@@ -187,6 +181,12 @@
   </si>
   <si>
     <t>Domestic 1550</t>
+  </si>
+  <si>
+    <t>^(?:|(?:LD|Q)NO .*: )(?:LV|LV Sub|HV) HH Metered</t>
+  </si>
+  <si>
+    <t>^(?:|(?:LD|Q)NO .*: )(?:Demand Category|HV.*HH)</t>
   </si>
 </sst>
 </file>
@@ -306,7 +306,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="549">
+  <cellStyleXfs count="551">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -440,6 +440,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -903,7 +905,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="549">
+  <cellStyles count="551">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1178,6 +1180,7 @@
     <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1451,6 +1454,7 @@
     <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="132" builtinId="5"/>
   </cellStyles>
@@ -1789,7 +1793,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1803,7 +1807,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="19">
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1">
@@ -1828,7 +1832,7 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5">
         <v>35</v>
@@ -1848,7 +1852,7 @@
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="5">
         <v>35</v>
@@ -1869,7 +1873,7 @@
     <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5">
         <v>62</v>
@@ -1890,7 +1894,7 @@
     <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="5">
         <v>93.4</v>
@@ -1911,7 +1915,7 @@
     <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -1932,7 +1936,7 @@
     <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -2011,7 +2015,7 @@
         <v>8</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2076,7 +2080,7 @@
         <v>210</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="5">
         <f>D$6</f>
@@ -2130,7 +2134,7 @@
         <v>225</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5">
         <f>D$8</f>
@@ -2184,7 +2188,7 @@
         <v>235</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="5">
         <f>D$7</f>
@@ -2238,7 +2242,7 @@
         <v>245</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="5">
         <f>D$9</f>
@@ -2292,7 +2296,7 @@
         <v>310</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D19" s="5">
         <f>D$6</f>
@@ -2346,7 +2350,7 @@
         <v>320</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D20" s="5">
         <f>D$8</f>
@@ -2400,7 +2404,7 @@
         <v>330</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D21" s="5">
         <f>D$7</f>
@@ -2454,7 +2458,7 @@
         <v>340</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D22" s="5">
         <f>D$9</f>
@@ -2508,7 +2512,7 @@
         <v>355</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D23" s="5">
         <f>D$5</f>
@@ -2562,7 +2566,7 @@
         <v>365</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D24" s="5">
         <f>D$4</f>
@@ -2616,7 +2620,7 @@
         <v>410</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D25" s="5">
         <f>D$6</f>
@@ -2670,7 +2674,7 @@
         <v>420</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D26" s="5">
         <f>D$8</f>
@@ -2723,7 +2727,7 @@
         <v>430</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D27" s="5">
         <f>D$7</f>
@@ -2777,7 +2781,7 @@
         <v>440</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D28" s="5">
         <f>D$9</f>
@@ -2831,7 +2835,7 @@
         <v>455</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D29" s="5">
         <f>D$5</f>
@@ -2885,7 +2889,7 @@
         <v>465</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D30" s="5">
         <f t="shared" ref="D30:E32" si="5">D$4</f>
@@ -2933,13 +2937,13 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="7">
         <v>710</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D31" s="5">
         <f t="shared" si="5"/>
@@ -2987,13 +2991,13 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" s="7">
         <v>720</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D32" s="5">
         <f t="shared" si="5"/>
@@ -3041,13 +3045,13 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" s="7">
         <v>740</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D33" s="5">
         <f>D$5</f>
@@ -3095,7 +3099,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="7">
         <v>810</v>
@@ -3149,7 +3153,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="7">
         <v>830</v>
